--- a/LastTests/Results for Latex.xlsx
+++ b/LastTests/Results for Latex.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Excel2LaTeX" sheetId="1" state="hidden" r:id="rId2"/>
@@ -14,9 +14,10 @@
     <sheet name="Still Node" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Still Node sum" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Solving time Node" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Distance Bundle" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Time Bundle" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Solving Time Bundle" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Solution values" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Distance Bundle" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Time Bundle" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Solving Time Bundle" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="34">
   <si>
     <t xml:space="preserve">RangeAddress</t>
   </si>
@@ -994,6 +995,372 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:E27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.99"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="8.88"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="10" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C10" s="28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C11" s="28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="28" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E11" s="28" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C12" s="28" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D12" s="28" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="E12" s="28" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C13" s="28" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="D13" s="28" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="E13" s="28" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C14" s="28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="28" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="E14" s="28" t="n">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C15" s="28" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="D15" s="28" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="E15" s="28" t="n">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C16" s="28" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="D16" s="28" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="E16" s="28" t="n">
+        <v>0.064</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="28" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C17" s="28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D17" s="28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E17" s="28" t="n">
+        <v>0.066</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>0.232</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>0.439</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>0.714</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1.786</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>89.21</v>
+      </c>
+      <c r="C25" s="29"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>183.38</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>215.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1001,8 +1368,8 @@
   </sheetPr>
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B75" activeCellId="0" sqref="B75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I82" activeCellId="0" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12309,7 +12676,7 @@
   </sheetPr>
   <dimension ref="A1:AS77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AX22" activeCellId="0" sqref="AX22"/>
     </sheetView>
   </sheetViews>
@@ -21058,7 +21425,7 @@
   <dimension ref="A2:Q19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
+      <selection pane="topLeft" activeCell="N54" activeCellId="0" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21953,9 +22320,861 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A4:Q19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M5" s="12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q5" s="10" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="27" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="27" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I9" s="25" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="J9" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="Q9" s="25" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="25" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="E10" s="27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="I10" s="25" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="J10" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="25" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="M10" s="27" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="N10" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="25" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Q10" s="25" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E11" s="27" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F11" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I11" s="25" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="J11" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M11" s="27" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="N11" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q11" s="25" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C12" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="27" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="F12" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H12" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I12" s="25" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="J12" s="26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K12" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L12" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M12" s="27" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="N12" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O12" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P12" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q12" s="25" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C13" s="25" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="D13" s="25" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="E13" s="27" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="F13" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G13" s="25" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H13" s="25" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="I13" s="25" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="J13" s="26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K13" s="25" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="L13" s="25" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="M13" s="27" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="N13" s="25" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="O13" s="25" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="P13" s="25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q13" s="25" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C14" s="25" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="D14" s="25" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E14" s="27" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="F14" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G14" s="25" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="H14" s="25" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="I14" s="25" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="J14" s="26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K14" s="25" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="L14" s="25" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="M14" s="27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N14" s="25" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="O14" s="25" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="P14" s="25" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="Q14" s="25" t="n">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" s="26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C15" s="25" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="D15" s="25" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="E15" s="27" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="F15" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G15" s="25" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H15" s="25" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="I15" s="25" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="J15" s="26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K15" s="25" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="L15" s="25" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="M15" s="27" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="N15" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O15" s="25" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="P15" s="25" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="Q15" s="25" t="n">
+        <v>1.012</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" s="26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C16" s="25" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D16" s="25" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="E16" s="27" t="n">
+        <v>1.324</v>
+      </c>
+      <c r="F16" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="25" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="H16" s="25" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="I16" s="25" t="n">
+        <v>1.132</v>
+      </c>
+      <c r="J16" s="26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K16" s="25" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="L16" s="25" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="M16" s="27" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="N16" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O16" s="25" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="P16" s="25" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="Q16" s="25" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" s="26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C17" s="25" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="D17" s="25" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="E17" s="27" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="F17" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G17" s="25" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H17" s="25" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="I17" s="25" t="n">
+        <v>2.777</v>
+      </c>
+      <c r="J17" s="26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K17" s="25" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="L17" s="25" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="M17" s="27" t="n">
+        <v>11.956</v>
+      </c>
+      <c r="N17" s="25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O17" s="25" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="P17" s="25" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="Q17" s="25" t="n">
+        <v>11.159</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" s="26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C18" s="25" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="D18" s="25" t="n">
+        <v>5.624</v>
+      </c>
+      <c r="E18" s="27" t="n">
+        <v>9.446</v>
+      </c>
+      <c r="F18" s="25" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G18" s="25" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="H18" s="25" t="n">
+        <v>5.401</v>
+      </c>
+      <c r="I18" s="25" t="n">
+        <v>5.989</v>
+      </c>
+      <c r="J18" s="26" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="K18" s="25" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="L18" s="25" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="M18" s="27" t="n">
+        <v>32.342</v>
+      </c>
+      <c r="N18" s="25" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="O18" s="25" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="P18" s="25" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="Q18" s="25" t="n">
+        <v>17.757</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" s="26" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="C19" s="25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="25" t="n">
+        <v>8.009</v>
+      </c>
+      <c r="E19" s="27" t="n">
+        <v>15.355</v>
+      </c>
+      <c r="F19" s="25" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="G19" s="25" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="H19" s="25" t="n">
+        <v>7.061</v>
+      </c>
+      <c r="I19" s="25" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="J19" s="26" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="K19" s="25" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="L19" s="25" t="n">
+        <v>16.695</v>
+      </c>
+      <c r="M19" s="27" t="n">
+        <v>44.404</v>
+      </c>
+      <c r="N19" s="25" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="O19" s="25" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="P19" s="25" t="n">
+        <v>12.667</v>
+      </c>
+      <c r="Q19" s="25" t="n">
+        <v>36.695</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D80" activeCellId="0" sqref="D80"/>
     </sheetView>
   </sheetViews>
@@ -23232,7 +24451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -24501,370 +25720,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:E27"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.99"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="8.88"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D3" s="10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="10" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="28" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C10" s="28" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D10" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="28" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C11" s="28" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D11" s="28" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E11" s="28" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="28" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C12" s="28" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="D12" s="28" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="E12" s="28" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="28" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C13" s="28" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="D13" s="28" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="E13" s="28" t="n">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="28" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C14" s="28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D14" s="28" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="E14" s="28" t="n">
-        <v>0.037</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="28" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C15" s="28" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="D15" s="28" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="E15" s="28" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="28" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C16" s="28" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="D16" s="28" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="E16" s="28" t="n">
-        <v>0.064</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="28" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C17" s="28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="D17" s="28" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E17" s="28" t="n">
-        <v>0.066</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>0.232</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>0.439</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>0.714</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>1.786</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>7.57</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>89.21</v>
-      </c>
-      <c r="C25" s="29"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>183.38</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>215.92</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>